--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H2">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.38723566666667</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N2">
-        <v>94.16170700000001</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O2">
-        <v>0.5539598599114094</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P2">
-        <v>0.5539598599114095</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q2">
-        <v>11.75400709898411</v>
+        <v>33.08183216615666</v>
       </c>
       <c r="R2">
-        <v>105.786063890857</v>
+        <v>297.73648949541</v>
       </c>
       <c r="S2">
-        <v>0.03381760430666501</v>
+        <v>0.08136437487065998</v>
       </c>
       <c r="T2">
-        <v>0.03381760430666501</v>
+        <v>0.08136437487065998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H3">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P3">
-        <v>0.3098362697066353</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q3">
-        <v>6.574154514077889</v>
+        <v>19.51564513805667</v>
       </c>
       <c r="R3">
-        <v>59.167390626701</v>
+        <v>175.64080624251</v>
       </c>
       <c r="S3">
-        <v>0.01891458411890671</v>
+        <v>0.0479984983564497</v>
       </c>
       <c r="T3">
-        <v>0.01891458411890671</v>
+        <v>0.0479984983564497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +649,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.11167</v>
+      </c>
+      <c r="H4">
+        <v>3.33501</v>
+      </c>
+      <c r="I4">
+        <v>0.1644205457720283</v>
+      </c>
+      <c r="J4">
+        <v>0.1644205457720283</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.3744836666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.123451</v>
-      </c>
-      <c r="I4">
-        <v>0.06104703021636478</v>
-      </c>
-      <c r="J4">
-        <v>0.06104703021636478</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>7.717279333333334</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N4">
-        <v>23.151838</v>
+        <v>0.426419</v>
       </c>
       <c r="O4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P4">
-        <v>0.1362038703819552</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q4">
-        <v>2.889995061437556</v>
+        <v>0.1580124032433333</v>
       </c>
       <c r="R4">
-        <v>26.009955552938</v>
+        <v>1.42211162919</v>
       </c>
       <c r="S4">
-        <v>0.008314841790793052</v>
+        <v>0.0003886296365670153</v>
       </c>
       <c r="T4">
-        <v>0.008314841790793052</v>
+        <v>0.0003886296365670153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.135293000000001</v>
+        <v>1.11167</v>
       </c>
       <c r="H5">
-        <v>15.405879</v>
+        <v>3.33501</v>
       </c>
       <c r="I5">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J5">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.38723566666667</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N5">
-        <v>94.16170700000001</v>
+        <v>37.286186</v>
       </c>
       <c r="O5">
-        <v>0.5539598599114094</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P5">
-        <v>0.5539598599114095</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q5">
-        <v>161.1826516083837</v>
+        <v>13.81664479687333</v>
       </c>
       <c r="R5">
-        <v>1450.643864475453</v>
+        <v>124.34980317186</v>
       </c>
       <c r="S5">
-        <v>0.463740670503974</v>
+        <v>0.03398187443371457</v>
       </c>
       <c r="T5">
-        <v>0.4637406705039741</v>
+        <v>0.03398187443371457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.135293000000001</v>
+        <v>1.11167</v>
       </c>
       <c r="H6">
-        <v>15.405879</v>
+        <v>3.33501</v>
       </c>
       <c r="I6">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J6">
-        <v>0.8371376774088587</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.55525033333333</v>
+        <v>0.251329</v>
       </c>
       <c r="N6">
-        <v>52.665751</v>
+        <v>0.753987</v>
       </c>
       <c r="O6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P6">
-        <v>0.3098362697066353</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q6">
-        <v>90.15135415001434</v>
+        <v>0.2793949094299999</v>
       </c>
       <c r="R6">
-        <v>811.3621873501291</v>
+        <v>2.51455418487</v>
       </c>
       <c r="S6">
-        <v>0.2593756151992374</v>
+        <v>0.0006871684746370452</v>
       </c>
       <c r="T6">
-        <v>0.2593756151992374</v>
+        <v>0.0006871684746370452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
         <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +868,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.717279333333334</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N7">
-        <v>23.151838</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P7">
-        <v>0.1362038703819552</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q7">
-        <v>39.63049053951134</v>
+        <v>152.8195428050043</v>
       </c>
       <c r="R7">
-        <v>356.6744148556021</v>
+        <v>1375.375885245039</v>
       </c>
       <c r="S7">
-        <v>0.1140213917056472</v>
+        <v>0.3758578577479613</v>
       </c>
       <c r="T7">
-        <v>0.1140213917056472</v>
+        <v>0.3758578577479613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5594206666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H8">
-        <v>1.678262</v>
+        <v>15.405879</v>
       </c>
       <c r="I8">
-        <v>0.09119481937794953</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J8">
-        <v>0.09119481937794954</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.38723566666667</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N8">
-        <v>94.16170700000001</v>
+        <v>52.665751</v>
       </c>
       <c r="O8">
-        <v>0.5539598599114094</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P8">
-        <v>0.5539598599114095</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q8">
-        <v>17.55866830147045</v>
+        <v>90.15135415001433</v>
       </c>
       <c r="R8">
-        <v>158.028014713234</v>
+        <v>811.3621873501289</v>
       </c>
       <c r="S8">
-        <v>0.0505182693672552</v>
+        <v>0.221726189085239</v>
       </c>
       <c r="T8">
-        <v>0.05051826936725522</v>
+        <v>0.221726189085239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,60 +974,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5594206666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H9">
-        <v>1.678262</v>
+        <v>15.405879</v>
       </c>
       <c r="I9">
-        <v>0.09119481937794953</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J9">
-        <v>0.09119481937794954</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>17.55525033333333</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N9">
-        <v>52.665751</v>
+        <v>0.426419</v>
       </c>
       <c r="O9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="P9">
-        <v>0.3098362697066353</v>
+        <v>0.002363631836533717</v>
       </c>
       <c r="Q9">
-        <v>9.820769844973556</v>
+        <v>0.7299288352556667</v>
       </c>
       <c r="R9">
-        <v>88.38692860476201</v>
+        <v>6.569359517301</v>
       </c>
       <c r="S9">
-        <v>0.02825546265263426</v>
+        <v>0.001795251335607814</v>
       </c>
       <c r="T9">
-        <v>0.02825546265263426</v>
+        <v>0.001795251335607814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5594206666666667</v>
+        <v>5.135293</v>
       </c>
       <c r="H10">
-        <v>1.678262</v>
+        <v>15.405879</v>
       </c>
       <c r="I10">
-        <v>0.09119481937794953</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J10">
-        <v>0.09119481937794954</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,60 +1054,60 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.717279333333334</v>
+        <v>12.42872866666667</v>
       </c>
       <c r="N10">
-        <v>23.151838</v>
+        <v>37.286186</v>
       </c>
       <c r="O10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758167</v>
       </c>
       <c r="P10">
-        <v>0.1362038703819552</v>
+        <v>0.2066765699758166</v>
       </c>
       <c r="Q10">
-        <v>4.317205549506222</v>
+        <v>63.82516332083267</v>
       </c>
       <c r="R10">
-        <v>38.854849945556</v>
+        <v>574.4264698874939</v>
       </c>
       <c r="S10">
-        <v>0.01242108735806006</v>
+        <v>0.1569772341669141</v>
       </c>
       <c r="T10">
-        <v>0.01242108735806006</v>
+        <v>0.1569772341669141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06514966666666668</v>
+        <v>5.135293</v>
       </c>
       <c r="H11">
-        <v>0.195449</v>
+        <v>15.405879</v>
       </c>
       <c r="I11">
-        <v>0.01062047299682699</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J11">
-        <v>0.01062047299682699</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,42 +1116,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.38723566666667</v>
+        <v>0.251329</v>
       </c>
       <c r="N11">
-        <v>94.16170700000001</v>
+        <v>0.753987</v>
       </c>
       <c r="O11">
-        <v>0.5539598599114094</v>
+        <v>0.004179334592343558</v>
       </c>
       <c r="P11">
-        <v>0.5539598599114095</v>
+        <v>0.004179334592343557</v>
       </c>
       <c r="Q11">
-        <v>2.044867941271445</v>
+        <v>1.290648054397</v>
       </c>
       <c r="R11">
-        <v>18.403811471443</v>
+        <v>11.615832489573</v>
       </c>
       <c r="S11">
-        <v>0.005883315733515186</v>
+        <v>0.003174333622049975</v>
       </c>
       <c r="T11">
-        <v>0.005883315733515188</v>
+        <v>0.003174333622049975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06514966666666668</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H12">
-        <v>0.195449</v>
+        <v>0.260443</v>
       </c>
       <c r="I12">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J12">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,42 +1178,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.55525033333333</v>
+        <v>29.75868033333333</v>
       </c>
       <c r="N12">
-        <v>52.665751</v>
+        <v>89.27604099999999</v>
       </c>
       <c r="O12">
-        <v>0.3098362697066353</v>
+        <v>0.4948552779010537</v>
       </c>
       <c r="P12">
-        <v>0.3098362697066353</v>
+        <v>0.4948552779010535</v>
       </c>
       <c r="Q12">
-        <v>1.143718707466556</v>
+        <v>2.583479994018111</v>
       </c>
       <c r="R12">
-        <v>10.293468367199</v>
+        <v>23.251319946163</v>
       </c>
       <c r="S12">
-        <v>0.003290607735856925</v>
+        <v>0.00635403848397435</v>
       </c>
       <c r="T12">
-        <v>0.003290607735856925</v>
+        <v>0.00635403848397435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06514966666666668</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H13">
-        <v>0.195449</v>
+        <v>0.260443</v>
       </c>
       <c r="I13">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J13">
-        <v>0.01062047299682699</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,834 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.717279333333334</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N13">
-        <v>23.151838</v>
+        <v>52.665751</v>
       </c>
       <c r="O13">
-        <v>0.1362038703819552</v>
+        <v>0.2919251856942525</v>
       </c>
       <c r="P13">
-        <v>0.1362038703819552</v>
+        <v>0.2919251856942524</v>
       </c>
       <c r="Q13">
-        <v>0.5027781761402224</v>
+        <v>1.524047354188111</v>
       </c>
       <c r="R13">
-        <v>4.525003585262001</v>
+        <v>13.716426187693</v>
       </c>
       <c r="S13">
-        <v>0.001446549527454879</v>
+        <v>0.003748376438885889</v>
       </c>
       <c r="T13">
-        <v>0.001446549527454879</v>
+        <v>0.003748376438885889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.260443</v>
+      </c>
+      <c r="I14">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="J14">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.426419</v>
+      </c>
+      <c r="O14">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P14">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q14">
+        <v>0.01233976040188889</v>
+      </c>
+      <c r="R14">
+        <v>0.111057843617</v>
+      </c>
+      <c r="S14">
+        <v>3.034949473507521E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.034949473507521E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.260443</v>
+      </c>
+      <c r="I15">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="J15">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N15">
+        <v>37.286186</v>
+      </c>
+      <c r="O15">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P15">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q15">
+        <v>1.078991793377555</v>
+      </c>
+      <c r="R15">
+        <v>9.710926140398</v>
+      </c>
+      <c r="S15">
+        <v>0.00265376755186339</v>
+      </c>
+      <c r="T15">
+        <v>0.00265376755186339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08681433333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.260443</v>
+      </c>
+      <c r="I16">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="J16">
+        <v>0.01284019544244376</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.251329</v>
+      </c>
+      <c r="N16">
+        <v>0.753987</v>
+      </c>
+      <c r="O16">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P16">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q16">
+        <v>0.02181895958233333</v>
+      </c>
+      <c r="R16">
+        <v>0.196370636241</v>
+      </c>
+      <c r="S16">
+        <v>5.36634729850573E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.36634729850573E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.34273</v>
+      </c>
+      <c r="H17">
+        <v>1.02819</v>
+      </c>
+      <c r="I17">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J17">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N17">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P17">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q17">
+        <v>10.19919251064333</v>
+      </c>
+      <c r="R17">
+        <v>91.79273259578999</v>
+      </c>
+      <c r="S17">
+        <v>0.02508479332843496</v>
+      </c>
+      <c r="T17">
+        <v>0.02508479332843496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.34273</v>
+      </c>
+      <c r="H18">
+        <v>1.02819</v>
+      </c>
+      <c r="I18">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J18">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N18">
+        <v>52.665751</v>
+      </c>
+      <c r="O18">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P18">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q18">
+        <v>6.016710946743333</v>
+      </c>
+      <c r="R18">
+        <v>54.15039852069</v>
+      </c>
+      <c r="S18">
+        <v>0.01479802939874784</v>
+      </c>
+      <c r="T18">
+        <v>0.01479802939874783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.34273</v>
+      </c>
+      <c r="H19">
+        <v>1.02819</v>
+      </c>
+      <c r="I19">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J19">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.426419</v>
+      </c>
+      <c r="O19">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P19">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q19">
+        <v>0.04871552795666666</v>
+      </c>
+      <c r="R19">
+        <v>0.43843975161</v>
+      </c>
+      <c r="S19">
+        <v>0.0001198152647283935</v>
+      </c>
+      <c r="T19">
+        <v>0.0001198152647283935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.34273</v>
+      </c>
+      <c r="H20">
+        <v>1.02819</v>
+      </c>
+      <c r="I20">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J20">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N20">
+        <v>37.286186</v>
+      </c>
+      <c r="O20">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P20">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q20">
+        <v>4.259698175926666</v>
+      </c>
+      <c r="R20">
+        <v>38.33728358334</v>
+      </c>
+      <c r="S20">
+        <v>0.01047667727353171</v>
+      </c>
+      <c r="T20">
+        <v>0.01047667727353171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.34273</v>
+      </c>
+      <c r="H21">
+        <v>1.02819</v>
+      </c>
+      <c r="I21">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J21">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.251329</v>
+      </c>
+      <c r="N21">
+        <v>0.753987</v>
+      </c>
+      <c r="O21">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P21">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q21">
+        <v>0.08613798816999998</v>
+      </c>
+      <c r="R21">
+        <v>0.7752418935299999</v>
+      </c>
+      <c r="S21">
+        <v>0.0002118553629335635</v>
+      </c>
+      <c r="T21">
+        <v>0.0002118553629335635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.253892</v>
+      </c>
+      <c r="I22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.75868033333333</v>
+      </c>
+      <c r="N22">
+        <v>89.27604099999999</v>
+      </c>
+      <c r="O22">
+        <v>0.4948552779010537</v>
+      </c>
+      <c r="P22">
+        <v>0.4948552779010535</v>
+      </c>
+      <c r="Q22">
+        <v>2.518496955730222</v>
+      </c>
+      <c r="R22">
+        <v>22.666472601572</v>
+      </c>
+      <c r="S22">
+        <v>0.006194213470023061</v>
+      </c>
+      <c r="T22">
+        <v>0.00619421347002306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.253892</v>
+      </c>
+      <c r="I23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N23">
+        <v>52.665751</v>
+      </c>
+      <c r="O23">
+        <v>0.2919251856942525</v>
+      </c>
+      <c r="P23">
+        <v>0.2919251856942524</v>
+      </c>
+      <c r="Q23">
+        <v>1.485712539210222</v>
+      </c>
+      <c r="R23">
+        <v>13.371412852892</v>
+      </c>
+      <c r="S23">
+        <v>0.003654092414930009</v>
+      </c>
+      <c r="T23">
+        <v>0.003654092414930009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.253892</v>
+      </c>
+      <c r="I24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.426419</v>
+      </c>
+      <c r="O24">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="P24">
+        <v>0.002363631836533717</v>
+      </c>
+      <c r="Q24">
+        <v>0.01202937474977778</v>
+      </c>
+      <c r="R24">
+        <v>0.108264372748</v>
+      </c>
+      <c r="S24">
+        <v>2.958610489541941E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.95861048954194E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.253892</v>
+      </c>
+      <c r="I25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.42872866666667</v>
+      </c>
+      <c r="N25">
+        <v>37.286186</v>
+      </c>
+      <c r="O25">
+        <v>0.2066765699758167</v>
+      </c>
+      <c r="P25">
+        <v>0.2066765699758166</v>
+      </c>
+      <c r="Q25">
+        <v>1.051851592879111</v>
+      </c>
+      <c r="R25">
+        <v>9.466664335912</v>
+      </c>
+      <c r="S25">
+        <v>0.002587016549792853</v>
+      </c>
+      <c r="T25">
+        <v>0.002587016549792853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.253892</v>
+      </c>
+      <c r="I26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.251329</v>
+      </c>
+      <c r="N26">
+        <v>0.753987</v>
+      </c>
+      <c r="O26">
+        <v>0.004179334592343558</v>
+      </c>
+      <c r="P26">
+        <v>0.004179334592343557</v>
+      </c>
+      <c r="Q26">
+        <v>0.02127014082266667</v>
+      </c>
+      <c r="R26">
+        <v>0.191431267404</v>
+      </c>
+      <c r="S26">
+        <v>5.231365973791644E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.231365973791644E-05</v>
       </c>
     </row>
   </sheetData>
